--- a/OGA_20234_MAT112.xlsx
+++ b/OGA_20234_MAT112.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E9DFC5-1363-46CD-A60D-09B4F2C695D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5048878-BC0A-4AA3-8DF9-1DE2DE3A23AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{631D1BB6-E550-4363-934A-18A7812EAECA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{631D1BB6-E550-4363-934A-18A7812EAECA}"/>
   </bookViews>
   <sheets>
     <sheet name="MAT112 KBA1191C" sheetId="1" r:id="rId1"/>
@@ -872,7 +872,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -924,8 +924,8 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8">
-        <f>D2*0.1+E2*0.25+F2*0.15</f>
-        <v>23.700000000000003</v>
+        <f>ROUND(D2*0.1+E2*0.25+F2*0.15,2)</f>
+        <v>23.7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G27" si="0">D3*0.1+E3*0.25+F3*0.15</f>
+        <f t="shared" ref="G3:G27" si="0">ROUND(D3*0.1+E3*0.25+F3*0.15,2)</f>
         <v>23.95</v>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>27.700000000000003</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE54A2A-428A-46AC-8882-681FFCBDA2F8}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1538,10 +1538,12 @@
       <c r="E2" s="8">
         <v>83</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="8">
+        <v>90</v>
+      </c>
       <c r="G2" s="8">
-        <f>D2*0.1+E2*0.25+F2*0.15</f>
-        <v>27.75</v>
+        <f>ROUND(D2*0.1+E2*0.25+F2*0.15,2)</f>
+        <v>41.25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1560,10 +1562,12 @@
       <c r="E3" s="8">
         <v>25</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8">
+        <v>90</v>
+      </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G23" si="0">D3*0.1+E3*0.25+F3*0.15</f>
-        <v>9.65</v>
+        <f t="shared" ref="G3:G23" si="0">ROUND(D3*0.1+E3*0.25+F3*0.15,2)</f>
+        <v>23.15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1582,10 +1586,12 @@
       <c r="E4" s="8">
         <v>69</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>97</v>
+      </c>
       <c r="G4" s="8">
         <f t="shared" si="0"/>
-        <v>20.65</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,10 +1610,12 @@
       <c r="E5" s="8">
         <v>47</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <v>90</v>
+      </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>14.15</v>
+        <v>27.65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1626,10 +1634,12 @@
       <c r="E6" s="8">
         <v>74</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>90</v>
+      </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>27.9</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1648,10 +1658,12 @@
       <c r="E7" s="8">
         <v>72</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>90</v>
+      </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>26.700000000000003</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1670,10 +1682,12 @@
       <c r="E8" s="8">
         <v>67</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>92</v>
+      </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>23.45</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1692,10 +1706,12 @@
       <c r="E9" s="8">
         <v>49</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>98</v>
+      </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>15.65</v>
+        <v>30.35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1714,10 +1730,12 @@
       <c r="E10" s="8">
         <v>92</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>98</v>
+      </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1736,10 +1754,12 @@
       <c r="E11" s="8">
         <v>52</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>84</v>
+      </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>19.7</v>
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1758,10 +1778,12 @@
       <c r="E12" s="8">
         <v>52</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>84</v>
+      </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1780,10 +1802,12 @@
       <c r="E13" s="8">
         <v>67</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>92</v>
+      </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>21.75</v>
+        <v>35.549999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1802,10 +1826,12 @@
       <c r="E14" s="8">
         <v>85</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <v>92</v>
+      </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>28.65</v>
+        <v>42.45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1824,10 +1850,12 @@
       <c r="E15" s="8">
         <v>49</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8">
+        <v>84</v>
+      </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>15.65</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1846,10 +1874,12 @@
       <c r="E16" s="8">
         <v>89</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <v>90</v>
+      </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>28.65</v>
+        <v>42.15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,10 +1898,12 @@
       <c r="E17" s="8">
         <v>89</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8">
+        <v>90</v>
+      </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>27.65</v>
+        <v>41.15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1890,10 +1922,12 @@
       <c r="E18" s="8">
         <v>87</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8">
+        <v>90</v>
+      </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>30.75</v>
+        <v>44.25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1912,10 +1946,12 @@
       <c r="E19" s="8">
         <v>89</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <v>90</v>
+      </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>29.95</v>
+        <v>43.45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1934,10 +1970,12 @@
       <c r="E20" s="8">
         <v>40</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8">
+        <v>90</v>
+      </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1956,10 +1994,12 @@
       <c r="E21" s="8">
         <v>56</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8">
+        <v>84</v>
+      </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,14 +2012,18 @@
       <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8">
+        <v>60</v>
+      </c>
       <c r="E22" s="8">
         <v>32</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8">
+        <v>90</v>
+      </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1998,10 +2042,12 @@
       <c r="E23" s="8">
         <v>87</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8">
+        <v>92</v>
+      </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>30.15</v>
+        <v>43.95</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2049,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D25473-4F92-4275-8E0F-327EF9A7BCCB}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2339,14 +2385,14 @@
         <v>44</v>
       </c>
       <c r="E12" s="8">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F12" s="8">
         <v>82</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>16.7</v>
+        <v>28.45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2387,14 +2433,14 @@
         <v>67</v>
       </c>
       <c r="E14" s="8">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F14" s="8">
         <v>92</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2528,7 +2574,7 @@
         <v>69</v>
       </c>
       <c r="D20" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20" s="8">
         <v>23</v>
@@ -2538,7 +2584,7 @@
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2889,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F7692-8F48-46A8-9B8A-E61FEFA82D99}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2943,7 +2989,7 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8">
-        <f>D2*0.1+E2*0.25+F2*0.15</f>
+        <f>ROUND(D2*0.1+E2*0.25+F2*0.15,2)</f>
         <v>23.25</v>
       </c>
     </row>
@@ -2965,7 +3011,7 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G31" si="0">D3*0.1+E3*0.25+F3*0.15</f>
+        <f t="shared" ref="G3:G31" si="0">ROUND(D3*0.1+E3*0.25+F3*0.15,2)</f>
         <v>27.7</v>
       </c>
     </row>
@@ -3252,7 +3298,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>19.450000000000003</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3318,7 +3364,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>24.950000000000003</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
